--- a/bea-documentation/sprint-backlog/sprint-backlog.xlsx
+++ b/bea-documentation/sprint-backlog/sprint-backlog.xlsx
@@ -3,18 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478F609C-6546-4F10-BF06-F4FCA40F8144}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6635300-360A-4870-94EC-9798C93197D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="7" r:id="rId1"/>
     <sheet name="sprint1" sheetId="1" r:id="rId2"/>
-    <sheet name="sprint2" sheetId="2" r:id="rId3"/>
-    <sheet name="spr3-&gt;09.10.19" sheetId="3" r:id="rId4"/>
-    <sheet name="spr4-&gt;16.10.19" sheetId="4" r:id="rId5"/>
-    <sheet name="sprint5" sheetId="5" r:id="rId6"/>
-    <sheet name="sprint6" sheetId="6" r:id="rId7"/>
+    <sheet name="spr2-&gt;09.10.19" sheetId="3" r:id="rId3"/>
+    <sheet name="spr3-&gt;16.10.19" sheetId="4" r:id="rId4"/>
+    <sheet name="sprint4" sheetId="5" r:id="rId5"/>
+    <sheet name="sprint5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
   <si>
     <t>Estimated Effort</t>
   </si>
@@ -46,9 +45,6 @@
     <t>Infrastructure</t>
   </si>
   <si>
-    <t>Define user stories and enter them to the main document into product backlog</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -64,24 +60,12 @@
     <t>High</t>
   </si>
   <si>
-    <t>1 h</t>
-  </si>
-  <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>10h</t>
-  </si>
-  <si>
     <t xml:space="preserve">Set up infrastructure Gitlab </t>
   </si>
   <si>
     <t>Extend user stories with "success" and "failure"</t>
   </si>
   <si>
-    <t>2h</t>
-  </si>
-  <si>
     <t xml:space="preserve">lesson learned </t>
   </si>
   <si>
@@ -91,9 +75,6 @@
     <t>Sprint Backlog. Make a document with sprint planning. Divide work in 14 weeks .</t>
   </si>
   <si>
-    <t>Exted ducumentatin with explanation about Angular and Spring. "What is it Spring, Angular …."</t>
-  </si>
-  <si>
     <t xml:space="preserve">Start a project. Start firsts classes </t>
   </si>
   <si>
@@ -104,6 +85,51 @@
   </si>
   <si>
     <t>Make a commit oft, so the supervisor can be better inform about actual state of work.</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Domain model</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>Write some user stories.</t>
+  </si>
+  <si>
+    <t>Initial structure of main document.</t>
+  </si>
+  <si>
+    <t>User stories</t>
+  </si>
+  <si>
+    <t>Make Vision of project.</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Start project</t>
+  </si>
+  <si>
+    <t>Define user stories and enter them to the main document.</t>
+  </si>
+  <si>
+    <t>Extend documentatin with explanation about Angular and Spring. "What is it Spring, Angular …."</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Make clear vision document and put it to the main document</t>
+  </si>
+  <si>
+    <t>in process</t>
+  </si>
+  <si>
+    <t>0.5h</t>
   </si>
 </sst>
 </file>
@@ -243,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -264,6 +290,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -276,18 +305,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -298,39 +360,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -615,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5DA474-C4B4-49A5-9303-5C37667E1856}">
   <dimension ref="A2:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -626,7 +655,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -634,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -642,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -747,273 +776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875EB3F0-6A6D-4B15-8DC1-1D96489E9A4D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" activeCellId="1" sqref="A1 D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95AC46B-E3E7-44A8-B644-31C498C5533E}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="3" max="3" width="45.265625" customWidth="1"/>
-    <col min="10" max="10" width="36.1328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="14.65" thickBot="1"/>
-    <row r="2" spans="1:10" ht="23.65" thickBot="1">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="23.65" thickBot="1">
-      <c r="A3" s="4">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="39.75" customHeight="1">
-      <c r="A4" s="20">
-        <v>1</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-    </row>
-    <row r="6" spans="1:10" ht="23.25">
-      <c r="A6" s="20">
-        <v>3</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="1:10" ht="23.65" thickBot="1">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="8"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA928902-3ABB-4FD3-9FC2-E7FE414BF72A}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="A1:XFD1048576"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1028,16 +794,16 @@
     <row r="1" spans="1:10" ht="14.65" thickBot="1"/>
     <row r="2" spans="1:10" ht="23.65" thickBot="1">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>0</v>
@@ -1051,119 +817,159 @@
       <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="30" t="s">
-        <v>19</v>
+      <c r="J2" s="19" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="8"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1196,7 +1002,448 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95AC46B-E3E7-44A8-B644-31C498C5533E}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="45.265625" customWidth="1"/>
+    <col min="10" max="10" width="36.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.65" thickBot="1"/>
+    <row r="2" spans="1:10" ht="23.65" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="23.65" thickBot="1">
+      <c r="A3" s="4">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="39.75" customHeight="1">
+      <c r="A4" s="9">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="39.75" customHeight="1" thickBot="1">
+      <c r="A5" s="4">
+        <v>7</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="23.25">
+      <c r="A6" s="9">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" ht="23.65" thickBot="1">
+      <c r="A7" s="4">
+        <v>9</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="22">
+        <v>10</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="22">
+        <v>11</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="22"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA928902-3ABB-4FD3-9FC2-E7FE414BF72A}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.1328125" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" customWidth="1"/>
+    <col min="10" max="10" width="27.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.65" thickBot="1"/>
+    <row r="2" spans="1:10" ht="23.65" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="22"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A13" s="23"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482597FB-D8C1-4A2B-BC77-1B011DBB4ADF}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -1216,16 +1463,16 @@
     <row r="1" spans="1:10" ht="14.65" thickBot="1"/>
     <row r="2" spans="1:10" ht="23.65" thickBot="1">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>0</v>
@@ -1239,8 +1486,8 @@
       <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="30" t="s">
-        <v>19</v>
+      <c r="J2" s="19" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.65" thickBot="1">
@@ -1254,115 +1501,107 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="14.65" thickBot="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="14.65" thickBot="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="8"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A10:A11"/>
@@ -1379,17 +1618,25 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB30E18-0ECD-40BE-8E63-164C030CBE77}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1404,16 +1651,16 @@
     <row r="1" spans="1:10" ht="14.65" thickBot="1"/>
     <row r="2" spans="1:10" ht="23.65" thickBot="1">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>0</v>
@@ -1427,8 +1674,8 @@
       <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="30" t="s">
-        <v>19</v>
+      <c r="J2" s="19" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.65" thickBot="1">
@@ -1442,115 +1689,107 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="14.65" thickBot="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="14.65" thickBot="1">
       <c r="A7" s="4"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="8"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A10:A11"/>
@@ -1567,6 +1806,14 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bea-documentation/sprint-backlog/sprint-backlog.xlsx
+++ b/bea-documentation/sprint-backlog/sprint-backlog.xlsx
@@ -3,29 +3,36 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6635300-360A-4870-94EC-9798C93197D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6168261-2793-43AD-ACC3-0DB1E1A6E81A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="rules" sheetId="7" r:id="rId1"/>
+    <sheet name="sprint plan" sheetId="8" r:id="rId1"/>
     <sheet name="sprint1" sheetId="1" r:id="rId2"/>
-    <sheet name="spr2-&gt;09.10.19" sheetId="3" r:id="rId3"/>
-    <sheet name="spr3-&gt;16.10.19" sheetId="4" r:id="rId4"/>
+    <sheet name="spr2" sheetId="3" r:id="rId3"/>
+    <sheet name="spr3" sheetId="4" r:id="rId4"/>
     <sheet name="sprint4" sheetId="5" r:id="rId5"/>
     <sheet name="sprint5" sheetId="6" r:id="rId6"/>
+    <sheet name="rules" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="104">
   <si>
     <t>Estimated Effort</t>
   </si>
@@ -66,9 +73,6 @@
     <t>Extend user stories with "success" and "failure"</t>
   </si>
   <si>
-    <t xml:space="preserve">lesson learned </t>
-  </si>
-  <si>
     <t>lesson learned</t>
   </si>
   <si>
@@ -117,9 +121,6 @@
     <t>Define user stories and enter them to the main document.</t>
   </si>
   <si>
-    <t>Extend documentatin with explanation about Angular and Spring. "What is it Spring, Angular …."</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -130,13 +131,226 @@
   </si>
   <si>
     <t>0.5h</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>sprint</t>
+  </si>
+  <si>
+    <t>We</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Tu</t>
+  </si>
+  <si>
+    <t>Th</t>
+  </si>
+  <si>
+    <t>Fr</t>
+  </si>
+  <si>
+    <t>Sa</t>
+  </si>
+  <si>
+    <t>Su</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t># sprint</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Meetings time 14:30- 15:00</t>
+  </si>
+  <si>
+    <t>del 1</t>
+  </si>
+  <si>
+    <t>del2</t>
+  </si>
+  <si>
+    <t>del3</t>
+  </si>
+  <si>
+    <t>del4</t>
+  </si>
+  <si>
+    <t>Goals</t>
+  </si>
+  <si>
+    <t>Stakeholders</t>
+  </si>
+  <si>
+    <t>To think about and articulate first and most important user stories;</t>
+  </si>
+  <si>
+    <t>Product Backlog(PL)</t>
+  </si>
+  <si>
+    <t>Organize my sprint</t>
+  </si>
+  <si>
+    <t>My Tasks</t>
+  </si>
+  <si>
+    <t>An initial set of user sotries.</t>
+  </si>
+  <si>
+    <t>A list of stakeholsers.</t>
+  </si>
+  <si>
+    <t>A domain model.</t>
+  </si>
+  <si>
+    <t>Set up my personal environment</t>
+  </si>
+  <si>
+    <t>Establish a new Git branch</t>
+  </si>
+  <si>
+    <t>A user case diagram   -&gt; del 2</t>
+  </si>
+  <si>
+    <t>Provide initial classes. -&gt; del2</t>
+  </si>
+  <si>
+    <t>Provide tests for my clssses. -&gt; del2</t>
+  </si>
+  <si>
+    <t>Sprint Backlog of Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint Backlog of Sprint 2</t>
+  </si>
+  <si>
+    <t>Domain Classes</t>
+  </si>
+  <si>
+    <t>Unit tests</t>
+  </si>
+  <si>
+    <t>Javadoc</t>
+  </si>
+  <si>
+    <t>Postgres SQL</t>
+  </si>
+  <si>
+    <t>Add postgress SQL to the project, make connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajust test classes </t>
+  </si>
+  <si>
+    <t>Develop sketch of working domain classes</t>
+  </si>
+  <si>
+    <t>Develop unit tests for domain model</t>
+  </si>
+  <si>
+    <t>del date == 09/10/19</t>
+  </si>
+  <si>
+    <t>del date == 30/10/19</t>
+  </si>
+  <si>
+    <t>del date == 20/11/19</t>
+  </si>
+  <si>
+    <t>del date == 18/12/19</t>
+  </si>
+  <si>
+    <t>? Not sure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organize your sprint </t>
+  </si>
+  <si>
+    <t>Fix the list of PB items for this sprint</t>
+  </si>
+  <si>
+    <t>Split larger PB items into tasks</t>
+  </si>
+  <si>
+    <t>Update any documents you have so far, if needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provide code for selected user stories (or parts thereof) </t>
+  </si>
+  <si>
+    <t>Production Java interfaces and classes</t>
+  </si>
+  <si>
+    <t>(Initial) object persistence via Java's persistence API (JPA).</t>
+  </si>
+  <si>
+    <t>JUnit test classes</t>
+  </si>
+  <si>
+    <t>Components of this Deliverable</t>
+  </si>
+  <si>
+    <t>The deliverable for this sprint shall encompass:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production Java interfaces and classes </t>
+  </si>
+  <si>
+    <t>JavaDoc documentation for public methods of entities and controllers</t>
+  </si>
+  <si>
+    <t>JUnit test classes,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Angular </t>
+  </si>
+  <si>
+    <t>Extend documentation with explanation about Angular and Spring. "What is it Spring, Angular …."</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Implement services for each entity classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement participant controller </t>
+  </si>
+  <si>
+    <t>almost done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   fix the list of PB items for this sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   split PB items into tasks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +385,23 @@
       <color theme="1"/>
       <name val="CIDFont+F3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,8 +420,86 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF10E0B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -265,11 +572,148 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -320,9 +764,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -332,11 +773,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -350,24 +812,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FF10E0B3"/>
+      <color rgb="FFFFFF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -377,6 +880,513 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1704975" cy="333375"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B99BBA-E000-4853-9D32-7D364DA09B8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="28575"/>
+          <a:ext cx="1704975" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:alpha val="56078"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Project Calendar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 19/20</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1438275" cy="214312"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{700BBB0F-9484-4AF4-9609-628B193C376F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="823913" y="504825"/>
+          <a:ext cx="1438275" cy="214312"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>September</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1881188" cy="223837"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738E6FF3-1044-4991-9820-96675CD720FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="490537"/>
+          <a:ext cx="1881188" cy="223837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>October</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1438275" cy="200025"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022208C8-EB30-4521-B73F-B3D8F5A7C0D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4262437" y="509588"/>
+          <a:ext cx="1438275" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>November</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1200151" cy="223838"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C19F63-9FFF-4BEF-95D3-0A5C79CEAC53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5748337" y="495300"/>
+          <a:ext cx="1200151" cy="223838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>December</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>138114</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="623887" cy="195262"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62497BE6-6A72-4A26-81C2-7A9B30D8DB7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7005638" y="500064"/>
+          <a:ext cx="623887" cy="195262"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>January</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2609850" cy="323850"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45BAE339-2528-4D1C-93F4-C53A163101B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8872538" y="180975"/>
+          <a:ext cx="2609850" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="10E0B3">
+            <a:alpha val="7059"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Meetings Date Memo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>          active date ==</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02343564-9206-4A7B-B099-EF69248E5C44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11072812" y="276225"/>
+          <a:ext cx="204788" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="10E0B3"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -641,145 +1651,1279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5DA474-C4B4-49A5-9303-5C37667E1856}">
-  <dimension ref="A2:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C5C85A-82B4-4FC3-85DE-ADD80C9606CE}">
+  <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="98.3984375" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" customWidth="1"/>
+    <col min="6" max="6" width="5.19921875" customWidth="1"/>
+    <col min="7" max="7" width="5.86328125" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" customWidth="1"/>
+    <col min="9" max="9" width="5.06640625" customWidth="1"/>
+    <col min="10" max="10" width="5.1328125" customWidth="1"/>
+    <col min="11" max="11" width="5" customWidth="1"/>
+    <col min="12" max="12" width="4.53125" customWidth="1"/>
+    <col min="13" max="13" width="4.9296875" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="4.19921875" customWidth="1"/>
+    <col min="16" max="16" width="4.59765625" customWidth="1"/>
+    <col min="17" max="17" width="3.86328125" customWidth="1"/>
+    <col min="18" max="18" width="7" customWidth="1"/>
+    <col min="19" max="19" width="4.796875" customWidth="1"/>
+    <col min="20" max="21" width="5.86328125" customWidth="1"/>
+    <col min="22" max="22" width="6.46484375" customWidth="1"/>
+    <col min="23" max="23" width="4.796875" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" customWidth="1"/>
+    <col min="25" max="25" width="5.265625" customWidth="1"/>
+    <col min="26" max="26" width="4.59765625" customWidth="1"/>
+    <col min="27" max="27" width="4.3984375" customWidth="1"/>
+    <col min="28" max="28" width="4.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="1" spans="1:29">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+    </row>
+    <row r="2" spans="1:29">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="40"/>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="43"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="44">
+        <v>43739</v>
+      </c>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="43"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="34">
+        <v>36</v>
+      </c>
+      <c r="C5" s="34">
+        <v>37</v>
+      </c>
+      <c r="D5" s="34">
+        <v>38</v>
+      </c>
+      <c r="E5" s="34">
+        <v>39</v>
+      </c>
+      <c r="F5" s="34">
+        <v>40</v>
+      </c>
+      <c r="G5" s="34">
+        <v>41</v>
+      </c>
+      <c r="H5" s="34">
+        <v>42</v>
+      </c>
+      <c r="I5" s="34">
+        <v>43</v>
+      </c>
+      <c r="J5" s="34">
+        <v>44</v>
+      </c>
+      <c r="K5" s="34">
+        <v>45</v>
+      </c>
+      <c r="L5" s="34">
+        <v>46</v>
+      </c>
+      <c r="M5" s="34">
+        <v>47</v>
+      </c>
+      <c r="N5" s="34">
+        <v>48</v>
+      </c>
+      <c r="O5" s="34">
+        <v>49</v>
+      </c>
+      <c r="P5" s="34">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="34">
+        <v>51</v>
+      </c>
+      <c r="R5" s="34">
+        <v>52</v>
+      </c>
+      <c r="S5" s="34">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="T5" s="37"/>
+      <c r="U5" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" s="46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34">
+        <v>1</v>
+      </c>
+      <c r="E6" s="34">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F6" s="34">
+        <v>3</v>
+      </c>
+      <c r="G6" s="34">
+        <v>4</v>
+      </c>
+      <c r="H6" s="34">
+        <v>5</v>
+      </c>
+      <c r="I6" s="34">
+        <v>6</v>
+      </c>
+      <c r="J6" s="34">
+        <v>7</v>
+      </c>
+      <c r="K6" s="34">
+        <v>8</v>
+      </c>
+      <c r="L6" s="34">
+        <v>9</v>
+      </c>
+      <c r="M6" s="34">
+        <v>10</v>
+      </c>
+      <c r="N6" s="34">
+        <v>11</v>
+      </c>
+      <c r="O6" s="34">
+        <v>12</v>
+      </c>
+      <c r="P6" s="34">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="34">
+        <v>14</v>
+      </c>
+      <c r="R6" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="37"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="47">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="48"/>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35">
+        <v>1</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="55">
+        <v>2</v>
+      </c>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="56">
+        <v>3</v>
+      </c>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="57">
+        <v>4</v>
+      </c>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="47">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="48"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="47">
+        <v>16</v>
+      </c>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="48"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="47">
+        <v>23</v>
+      </c>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="48"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="47">
+        <v>30</v>
+      </c>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="48"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="44">
+        <v>43770</v>
+      </c>
+      <c r="W11" s="42"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="48"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="U12" s="45"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="47">
+        <v>6</v>
+      </c>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="48"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="U13" s="45"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="47">
+        <v>13</v>
+      </c>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="48"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="D14" s="36"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="47">
+        <v>20</v>
+      </c>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="48"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="D15" s="36"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="47">
+        <v>27</v>
+      </c>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="48"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="D16" s="36"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="44">
+        <v>43800</v>
+      </c>
+      <c r="W16" s="42"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="48"/>
+    </row>
+    <row r="17" spans="4:29">
+      <c r="D17" s="36"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="47">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="48"/>
+    </row>
+    <row r="18" spans="4:29">
+      <c r="D18" s="36"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="47">
+        <v>11</v>
+      </c>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="48"/>
+    </row>
+    <row r="19" spans="4:29">
+      <c r="U19" s="49"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="51">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>21</v>
-      </c>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="50"/>
+      <c r="AA19" s="50"/>
+      <c r="AB19" s="50"/>
+      <c r="AC19" s="52"/>
+    </row>
+    <row r="20" spans="4:29">
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+    </row>
+    <row r="21" spans="4:29">
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="37"/>
+    </row>
+    <row r="22" spans="4:29">
+      <c r="V22" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="7.9296875" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="44.796875" customWidth="1"/>
+    <col min="4" max="4" width="5.9296875" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.9296875" customWidth="1"/>
+    <col min="7" max="7" width="8.3984375" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" customWidth="1"/>
+    <col min="10" max="10" width="30.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
+      <c r="C1" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:10" ht="58.5" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="23.25">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23.65" thickBot="1">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="23.65" thickBot="1">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A12" s="24">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="29"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="24">
+        <v>11</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="18" spans="3:3" ht="23.25" customHeight="1"/>
+    <row r="30" spans="3:3">
+      <c r="C30" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G12:G13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95AC46B-E3E7-44A8-B644-31C498C5533E}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="12.53125" customWidth="1"/>
+    <col min="3" max="3" width="45.265625" customWidth="1"/>
+    <col min="8" max="8" width="4.3984375" customWidth="1"/>
+    <col min="9" max="9" width="11.796875" customWidth="1"/>
+    <col min="10" max="10" width="36.1328125" customWidth="1"/>
+    <col min="11" max="11" width="9.06640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="34.5" customHeight="1" thickBot="1">
+      <c r="C1" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="1:10" ht="23.65" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="26.65" customHeight="1">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="J4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1">
+      <c r="A5">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.65" thickBot="1">
+      <c r="H10" s="29"/>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="24"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="J11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A12" s="25"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="J12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="J13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="J15" s="70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="J16" s="71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10">
+      <c r="J18" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10">
+      <c r="J19" s="71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA928902-3ABB-4FD3-9FC2-E7FE414BF72A}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -791,7 +2935,12 @@
     <col min="10" max="10" width="27.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.65" thickBot="1"/>
+    <row r="1" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
+      <c r="F1" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="54"/>
+    </row>
     <row r="2" spans="1:10" ht="23.65" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
@@ -817,92 +2966,52 @@
       <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>14</v>
+      <c r="J2" s="18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A3" s="8">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="G6" s="16"/>
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
@@ -912,64 +3021,64 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="22"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="22"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="22"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -1002,265 +3111,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95AC46B-E3E7-44A8-B644-31C498C5533E}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="3" max="3" width="45.265625" customWidth="1"/>
-    <col min="10" max="10" width="36.1328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="14.65" thickBot="1"/>
-    <row r="2" spans="1:10" ht="23.65" thickBot="1">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="23.65" thickBot="1">
-      <c r="A3" s="4">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="39.75" customHeight="1">
-      <c r="A4" s="9">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A5" s="4">
-        <v>7</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="23.25">
-      <c r="A6" s="9">
-        <v>8</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" ht="23.65" thickBot="1">
-      <c r="A7" s="4">
-        <v>9</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="22">
-        <v>10</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="22">
-        <v>11</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="22"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA928902-3ABB-4FD3-9FC2-E7FE414BF72A}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482597FB-D8C1-4A2B-BC77-1B011DBB4ADF}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1272,7 +3128,15 @@
     <col min="10" max="10" width="27.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.65" thickBot="1"/>
+    <row r="1" spans="1:10" ht="39" customHeight="1" thickBot="1">
+      <c r="F1" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="54"/>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="2" spans="1:10" ht="23.65" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
@@ -1298,8 +3162,8 @@
       <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>14</v>
+      <c r="J2" s="18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.65" thickBot="1">
@@ -1353,67 +3217,75 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="22"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="22"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="22"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A10:A11"/>
@@ -1430,202 +3302,6 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482597FB-D8C1-4A2B-BC77-1B011DBB4ADF}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9.1328125" customWidth="1"/>
-    <col min="2" max="2" width="14.796875" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.1328125" customWidth="1"/>
-    <col min="10" max="10" width="27.1328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="14.65" thickBot="1"/>
-    <row r="2" spans="1:10" ht="23.65" thickBot="1">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="22"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="22"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="22"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1674,8 +3350,8 @@
       <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>14</v>
+      <c r="J2" s="18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.65" thickBot="1">
@@ -1729,67 +3405,75 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="22"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="22"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="22"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A10:A11"/>
@@ -1806,15 +3490,141 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5DA474-C4B4-49A5-9303-5C37667E1856}">
+  <dimension ref="A2:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="98.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bea-documentation/sprint-backlog/sprint-backlog.xlsx
+++ b/bea-documentation/sprint-backlog/sprint-backlog.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6168261-2793-43AD-ACC3-0DB1E1A6E81A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD86D9B9-78BC-4C31-BF20-6E54C9FF04BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sprint plan" sheetId="8" r:id="rId1"/>
@@ -776,42 +776,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -858,6 +822,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1325,16 +1325,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1349,7 +1349,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11072812" y="276225"/>
+          <a:off x="10901362" y="266700"/>
           <a:ext cx="204788" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1654,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C5C85A-82B4-4FC3-85DE-ADD80C9606CE}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1689,606 +1689,606 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="40"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="28"/>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="43"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="31"/>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="44">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="32">
         <v>43739</v>
       </c>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="43"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="31"/>
     </row>
     <row r="5" spans="1:29">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="22">
         <v>36</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="22">
         <v>37</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="22">
         <v>38</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="22">
         <v>39</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="22">
         <v>40</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="22">
         <v>41</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="22">
         <v>42</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="22">
         <v>43</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="22">
         <v>44</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="22">
         <v>45</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="22">
         <v>46</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="22">
         <v>47</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="22">
         <v>48</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="22">
         <v>49</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="22">
         <v>50</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="22">
         <v>51</v>
       </c>
-      <c r="R5" s="34">
+      <c r="R5" s="22">
         <v>52</v>
       </c>
-      <c r="S5" s="34">
+      <c r="S5" s="22">
         <v>1</v>
       </c>
-      <c r="T5" s="37"/>
-      <c r="U5" s="45" t="s">
+      <c r="T5" s="25"/>
+      <c r="U5" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="V5" s="42" t="s">
+      <c r="V5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="42" t="s">
+      <c r="W5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="X5" s="42" t="s">
+      <c r="X5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="42" t="s">
+      <c r="Y5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="Z5" s="42" t="s">
+      <c r="Z5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AA5" s="42" t="s">
+      <c r="AA5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AB5" s="42" t="s">
+      <c r="AB5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="AC5" s="46" t="s">
+      <c r="AC5" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22">
         <v>1</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="22">
         <v>2</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="22">
         <v>3</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="22">
         <v>4</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="22">
         <v>5</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="22">
         <v>6</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="22">
         <v>7</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="22">
         <v>8</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="22">
         <v>9</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="22">
         <v>10</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="22">
         <v>11</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="22">
         <v>12</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="22">
         <v>13</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="22">
         <v>14</v>
       </c>
-      <c r="R6" s="35" t="s">
+      <c r="R6" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="S6" s="35" t="s">
+      <c r="S6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="37"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="47">
+      <c r="T6" s="25"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="35">
         <v>2</v>
       </c>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="48"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="36"/>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23">
         <v>1</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="55">
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="43">
         <v>2</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="56">
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44">
         <v>3</v>
       </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57">
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="45">
         <v>4</v>
       </c>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="47">
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="35">
         <v>9</v>
       </c>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="48"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="36"/>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34" t="s">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34" t="s">
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34" t="s">
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="47">
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="35">
         <v>16</v>
       </c>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="48"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="36"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="47">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="35">
         <v>23</v>
       </c>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="48"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="36"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="47">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="35">
         <v>30</v>
       </c>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="48"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="36"/>
     </row>
     <row r="11" spans="1:29">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="44">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="32">
         <v>43770</v>
       </c>
-      <c r="W11" s="42"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="48"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="36"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="U12" s="45"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="47">
+      <c r="U12" s="33"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="35">
         <v>6</v>
       </c>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="48"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="36"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="U13" s="45"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="47">
+      <c r="U13" s="33"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="35">
         <v>13</v>
       </c>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="48"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="36"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="D14" s="36"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="47">
+      <c r="D14" s="24"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="35">
         <v>20</v>
       </c>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="48"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="36"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="D15" s="36"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="47">
+      <c r="D15" s="24"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="35">
         <v>27</v>
       </c>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="48"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="36"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="D16" s="36"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="44">
+      <c r="D16" s="24"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="32">
         <v>43800</v>
       </c>
-      <c r="W16" s="42"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="48"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="36"/>
     </row>
     <row r="17" spans="4:29">
-      <c r="D17" s="36"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="47">
+      <c r="D17" s="24"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="35">
         <v>4</v>
       </c>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="48"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="36"/>
     </row>
     <row r="18" spans="4:29">
-      <c r="D18" s="36"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="47">
+      <c r="D18" s="24"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="35">
         <v>11</v>
       </c>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="48"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="36"/>
     </row>
     <row r="19" spans="4:29">
-      <c r="U19" s="49"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="51">
+      <c r="U19" s="37"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="39">
         <v>18</v>
       </c>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="52"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="40"/>
     </row>
     <row r="20" spans="4:29">
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
     </row>
     <row r="21" spans="4:29">
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
     </row>
     <row r="22" spans="4:29">
-      <c r="V22" s="53" t="s">
+      <c r="V22" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2300,8 +2300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2312,20 +2312,20 @@
     <col min="4" max="4" width="5.9296875" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" customWidth="1"/>
     <col min="6" max="6" width="6.9296875" customWidth="1"/>
-    <col min="7" max="7" width="8.3984375" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
     <col min="9" max="9" width="36.33203125" customWidth="1"/>
     <col min="10" max="10" width="30.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="58.5" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2350,10 +2350,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="64" t="s">
+      <c r="J2" s="52" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2376,10 +2376,10 @@
         <v>19</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="54" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2402,10 +2402,10 @@
         <v>19</v>
       </c>
       <c r="H4" s="19"/>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="56" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2428,10 +2428,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="J5" s="54" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2454,10 +2454,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="21"/>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="56" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2481,11 +2481,11 @@
       <c r="G7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="65" t="s">
+      <c r="H7" s="60"/>
+      <c r="I7" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="66" t="s">
+      <c r="J7" s="54" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2507,11 +2507,11 @@
       <c r="G8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="67" t="s">
+      <c r="H8" s="61"/>
+      <c r="I8" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="56" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2533,11 +2533,11 @@
       <c r="G9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="65" t="s">
+      <c r="H9" s="60"/>
+      <c r="I9" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="66" t="s">
+      <c r="J9" s="54" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2559,9 +2559,9 @@
       <c r="G10" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="68" t="s">
+      <c r="H10" s="61"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2579,83 +2579,79 @@
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
     </row>
     <row r="12" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A12" s="24">
+      <c r="A12" s="66">
         <v>10</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="28" t="s">
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="63"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.65" thickBot="1">
+      <c r="A13" s="67"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="61"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="66">
+        <v>11</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="68"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="29"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="66"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="24">
-        <v>11</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="61"/>
-      <c r="J14" s="62"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="29"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="61"/>
     </row>
     <row r="18" spans="3:3" ht="23.25" customHeight="1"/>
     <row r="30" spans="3:3">
-      <c r="C30" s="59"/>
+      <c r="C30" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -2669,6 +2665,10 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2693,13 +2693,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" thickBot="1">
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="23.65" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2724,10 +2724,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="57" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="60"/>
       <c r="J7" t="s">
         <v>86</v>
       </c>
@@ -2831,42 +2831,42 @@
       <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="61"/>
       <c r="J8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="H9" s="28"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="1:10" ht="14.65" thickBot="1">
-      <c r="H10" s="29"/>
+      <c r="H10" s="61"/>
       <c r="J10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="24"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
       <c r="J11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
       <c r="J12" t="s">
         <v>96</v>
       </c>
@@ -2877,27 +2877,27 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="J15" s="70" t="s">
+      <c r="J15" s="58" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="J16" s="71" t="s">
+      <c r="J16" s="59" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="10:10">
-      <c r="J17" s="71" t="s">
+      <c r="J17" s="59" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="10:10">
-      <c r="J18" s="71" t="s">
+      <c r="J18" s="59" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="10:10">
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="59" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2936,10 +2936,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="23.65" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3021,64 +3021,64 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="24"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="24"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
     </row>
     <row r="11" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="24"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -3129,10 +3129,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1" thickBot="1">
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="54"/>
+      <c r="G1" s="42"/>
       <c r="H1" t="s">
         <v>82</v>
       </c>
@@ -3217,64 +3217,64 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="24"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="24"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
     </row>
     <row r="11" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="24"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -3312,7 +3312,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3405,64 +3405,64 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="24"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="24"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
     </row>
     <row r="11" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="24"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="24">

--- a/bea-documentation/sprint-backlog/sprint-backlog.xlsx
+++ b/bea-documentation/sprint-backlog/sprint-backlog.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD86D9B9-78BC-4C31-BF20-6E54C9FF04BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6233DACC-E7C1-423A-B215-FDCDED8FB2AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="104">
   <si>
     <t>Estimated Effort</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Sprint Backlog. Make a document with sprint planning. Divide work in 14 weeks .</t>
   </si>
   <si>
-    <t xml:space="preserve">Start a project. Start firsts classes </t>
-  </si>
-  <si>
     <t>Important</t>
   </si>
   <si>
@@ -344,6 +341,9 @@
   </si>
   <si>
     <t xml:space="preserve">   split PB items into tasks</t>
+  </si>
+  <si>
+    <t>Start a project. Start firsts classes for login function</t>
   </si>
 </sst>
 </file>
@@ -822,16 +822,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -840,16 +846,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1655,7 +1655,7 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="22">
         <v>36</v>
@@ -1875,36 +1875,36 @@
       </c>
       <c r="T5" s="25"/>
       <c r="U5" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="30" t="s">
+      <c r="X5" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="X5" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y5" s="30" t="s">
+      <c r="Z5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="Z5" s="30" t="s">
+      <c r="AA5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AA5" s="30" t="s">
+      <c r="AB5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AB5" s="30" t="s">
+      <c r="AC5" s="34" t="s">
         <v>44</v>
-      </c>
-      <c r="AC5" s="34" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -1951,10 +1951,10 @@
         <v>14</v>
       </c>
       <c r="R6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="23" t="s">
         <v>47</v>
-      </c>
-      <c r="S6" s="23" t="s">
-        <v>48</v>
       </c>
       <c r="T6" s="25"/>
       <c r="U6" s="33"/>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -2020,23 +2020,23 @@
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
       <c r="G8" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
       <c r="J8" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="22" spans="4:29">
       <c r="V22" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W22" s="41"/>
       <c r="X22" s="41"/>
@@ -2301,7 +2301,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2320,10 +2320,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
       <c r="C1" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G1" s="42"/>
     </row>
@@ -2351,10 +2351,10 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.65" thickBot="1">
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
@@ -2373,14 +2373,14 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3" s="54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="23.25">
@@ -2388,10 +2388,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>10</v>
@@ -2399,14 +2399,14 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J4" s="56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.65" thickBot="1">
@@ -2414,10 +2414,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>10</v>
@@ -2425,14 +2425,14 @@
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.65" thickBot="1">
@@ -2440,10 +2440,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>10</v>
@@ -2451,14 +2451,14 @@
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" s="56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.65" thickBot="1">
@@ -2476,17 +2476,17 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="60"/>
+        <v>18</v>
+      </c>
+      <c r="H7" s="62"/>
       <c r="I7" s="53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.65" thickBot="1">
@@ -2497,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>10</v>
@@ -2505,14 +2505,14 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="61"/>
+        <v>30</v>
+      </c>
+      <c r="H8" s="63"/>
       <c r="I8" s="55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1">
@@ -2531,14 +2531,14 @@
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="60"/>
+        <v>30</v>
+      </c>
+      <c r="H9" s="62"/>
       <c r="I9" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J9" s="54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="23.65" thickBot="1">
@@ -2557,12 +2557,12 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="61"/>
+        <v>100</v>
+      </c>
+      <c r="H10" s="63"/>
       <c r="I10" s="55"/>
       <c r="J10" s="56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="23.65" thickBot="1">
@@ -2570,81 +2570,81 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="62"/>
+      <c r="H11" s="68"/>
       <c r="I11" s="53"/>
       <c r="J11" s="54"/>
     </row>
     <row r="12" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A12" s="66">
+      <c r="A12" s="60">
         <v>10</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="62" t="s">
+      <c r="B12" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="63"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="69"/>
       <c r="I12" s="55"/>
       <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="67"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="61"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="63"/>
       <c r="I13" s="53"/>
       <c r="J13" s="54"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="66">
+      <c r="A14" s="60">
         <v>11</v>
       </c>
-      <c r="B14" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="60" t="s">
-        <v>31</v>
+      <c r="B14" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="62" t="s">
+        <v>30</v>
       </c>
       <c r="I14" s="49"/>
       <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A15" s="67"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="61"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="63"/>
     </row>
     <row r="18" spans="3:3" ht="23.25" customHeight="1"/>
     <row r="30" spans="3:3">
@@ -2652,6 +2652,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -2661,14 +2669,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2679,7 +2679,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2694,10 +2694,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" thickBot="1">
       <c r="C1" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G1" s="42"/>
     </row>
@@ -2725,10 +2725,10 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="26.65" customHeight="1">
@@ -2736,17 +2736,17 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="10"/>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
@@ -2754,17 +2754,17 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="13"/>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
@@ -2772,17 +2772,17 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="16"/>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
@@ -2790,13 +2790,16 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
       </c>
       <c r="H6" s="17"/>
     </row>
@@ -2805,17 +2808,17 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
         <v>98</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="62"/>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.65" thickBot="1">
@@ -2823,82 +2826,82 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="61"/>
+        <v>28</v>
+      </c>
+      <c r="H8" s="63"/>
       <c r="J8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="H9" s="62"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.65" thickBot="1">
+      <c r="H10" s="63"/>
+      <c r="J10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.65" thickBot="1">
-      <c r="H10" s="61"/>
-      <c r="J10" t="s">
-        <v>88</v>
-      </c>
-    </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="66"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="70"/>
       <c r="F11" s="70"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A12" s="67"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="J13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="J15" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="J16" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="10:10">
       <c r="J17" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="10:10">
       <c r="J18" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="10:10">
       <c r="J19" s="59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2937,7 +2940,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
       <c r="F1" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="42"/>
     </row>
@@ -3021,75 +3024,67 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="66"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A9" s="67"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="66"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A11" s="67"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="66"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="70"/>
       <c r="F12" s="70"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="67"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A10:A11"/>
@@ -3106,6 +3101,14 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3130,11 +3133,11 @@
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1" thickBot="1">
       <c r="F1" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" s="42"/>
       <c r="H1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="23.65" thickBot="1">
@@ -3217,75 +3220,67 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="66"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A9" s="67"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="66"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A11" s="67"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="66"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="70"/>
       <c r="F12" s="70"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="67"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A10:A11"/>
@@ -3302,6 +3297,14 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3405,75 +3408,67 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="66"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A9" s="67"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="66"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A11" s="67"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="66"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="70"/>
       <c r="F12" s="70"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="67"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="71"/>
       <c r="F13" s="71"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A10:A11"/>
@@ -3490,6 +3485,14 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3510,7 +3513,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3518,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3526,7 +3529,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/bea-documentation/sprint-backlog/sprint-backlog.xlsx
+++ b/bea-documentation/sprint-backlog/sprint-backlog.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6233DACC-E7C1-423A-B215-FDCDED8FB2AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352787F0-BE6F-420F-BB2A-0B3A477C30AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sprint plan" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="100">
   <si>
     <t>Estimated Effort</t>
   </si>
@@ -179,18 +179,6 @@
   </si>
   <si>
     <t>Meetings time 14:30- 15:00</t>
-  </si>
-  <si>
-    <t>del 1</t>
-  </si>
-  <si>
-    <t>del2</t>
-  </si>
-  <si>
-    <t>del3</t>
-  </si>
-  <si>
-    <t>del4</t>
   </si>
   <si>
     <t>Goals</t>
@@ -350,7 +338,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +384,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -713,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,9 +792,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -822,22 +814,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -846,10 +832,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -857,6 +849,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1654,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52C5C85A-82B4-4FC3-85DE-ADD80C9606CE}">
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1981,22 +1979,22 @@
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
-      <c r="H7" s="43">
+      <c r="H7" s="42">
         <v>2</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44">
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43">
         <v>3</v>
       </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45">
+      <c r="M7" s="43"/>
+      <c r="N7" s="44">
         <v>4</v>
       </c>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="25"/>
@@ -2019,25 +2017,17 @@
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
-      <c r="G8" s="22" t="s">
-        <v>49</v>
-      </c>
+      <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
-      <c r="J8" s="22" t="s">
-        <v>50</v>
-      </c>
+      <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
-      <c r="M8" s="22" t="s">
-        <v>51</v>
-      </c>
+      <c r="M8" s="22"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
-      <c r="Q8" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="25"/>
@@ -2156,7 +2146,7 @@
       <c r="U12" s="33"/>
       <c r="V12" s="30"/>
       <c r="W12" s="30"/>
-      <c r="X12" s="35">
+      <c r="X12" s="71">
         <v>6</v>
       </c>
       <c r="Y12" s="30"/>
@@ -2169,7 +2159,7 @@
       <c r="U13" s="33"/>
       <c r="V13" s="30"/>
       <c r="W13" s="30"/>
-      <c r="X13" s="35">
+      <c r="X13" s="71">
         <v>13</v>
       </c>
       <c r="Y13" s="30"/>
@@ -2183,7 +2173,7 @@
       <c r="U14" s="33"/>
       <c r="V14" s="30"/>
       <c r="W14" s="30"/>
-      <c r="X14" s="35">
+      <c r="X14" s="71">
         <v>20</v>
       </c>
       <c r="Y14" s="30"/>
@@ -2197,7 +2187,7 @@
       <c r="U15" s="33"/>
       <c r="V15" s="30"/>
       <c r="W15" s="30"/>
-      <c r="X15" s="35">
+      <c r="X15" s="71">
         <v>27</v>
       </c>
       <c r="Y15" s="30"/>
@@ -2213,7 +2203,7 @@
         <v>43800</v>
       </c>
       <c r="W16" s="30"/>
-      <c r="X16" s="35"/>
+      <c r="X16" s="71"/>
       <c r="Y16" s="30"/>
       <c r="Z16" s="30"/>
       <c r="AA16" s="30"/>
@@ -2225,7 +2215,7 @@
       <c r="U17" s="33"/>
       <c r="V17" s="30"/>
       <c r="W17" s="30"/>
-      <c r="X17" s="35">
+      <c r="X17" s="71">
         <v>4</v>
       </c>
       <c r="Y17" s="30"/>
@@ -2239,7 +2229,7 @@
       <c r="U18" s="33"/>
       <c r="V18" s="30"/>
       <c r="W18" s="30"/>
-      <c r="X18" s="35">
+      <c r="X18" s="71">
         <v>11</v>
       </c>
       <c r="Y18" s="30"/>
@@ -2252,14 +2242,14 @@
       <c r="U19" s="37"/>
       <c r="V19" s="38"/>
       <c r="W19" s="38"/>
-      <c r="X19" s="39">
+      <c r="X19" s="72">
         <v>18</v>
       </c>
       <c r="Y19" s="38"/>
       <c r="Z19" s="38"/>
       <c r="AA19" s="38"/>
       <c r="AB19" s="38"/>
-      <c r="AC19" s="40"/>
+      <c r="AC19" s="39"/>
     </row>
     <row r="20" spans="4:29">
       <c r="V20" s="25"/>
@@ -2280,12 +2270,12 @@
       <c r="AB21" s="25"/>
     </row>
     <row r="22" spans="4:29">
-      <c r="V22" s="41" t="s">
+      <c r="V22" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
       <c r="Z22" s="25"/>
       <c r="AA22" s="25"/>
       <c r="AB22" s="25"/>
@@ -2300,7 +2290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2319,13 +2309,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="C1" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="42"/>
+      <c r="C1" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="58.5" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2350,11 +2340,11 @@
         <v>2</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="52" t="s">
-        <v>58</v>
+      <c r="I2" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.65" thickBot="1">
@@ -2376,11 +2366,11 @@
         <v>18</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="54" t="s">
-        <v>60</v>
+      <c r="I3" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="23.25">
@@ -2402,11 +2392,11 @@
         <v>18</v>
       </c>
       <c r="H4" s="19"/>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="55" t="s">
         <v>55</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.65" thickBot="1">
@@ -2428,11 +2418,11 @@
         <v>18</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="54" t="s">
-        <v>64</v>
+      <c r="J5" s="53" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.65" thickBot="1">
@@ -2454,11 +2444,11 @@
         <v>18</v>
       </c>
       <c r="H6" s="21"/>
-      <c r="I6" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="56" t="s">
-        <v>61</v>
+      <c r="I6" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="55" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.65" thickBot="1">
@@ -2481,12 +2471,12 @@
       <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="54" t="s">
-        <v>62</v>
+      <c r="H7" s="59"/>
+      <c r="I7" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.65" thickBot="1">
@@ -2507,12 +2497,12 @@
       <c r="G8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" s="56" t="s">
-        <v>63</v>
+      <c r="H8" s="60"/>
+      <c r="I8" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="55" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1">
@@ -2533,12 +2523,12 @@
       <c r="G9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" s="54" t="s">
-        <v>65</v>
+      <c r="H9" s="59"/>
+      <c r="I9" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="23.65" thickBot="1">
@@ -2557,12 +2547,12 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="56" t="s">
-        <v>66</v>
+        <v>96</v>
+      </c>
+      <c r="H10" s="60"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="23.65" thickBot="1">
@@ -2573,93 +2563,85 @@
         <v>25</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A12" s="60">
+      <c r="A12" s="65">
         <v>10</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="62" t="s">
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="69"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="63"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="60"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="60">
+      <c r="A14" s="65">
         <v>11</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="64" t="s">
+      <c r="C14" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="62" t="s">
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A15" s="61"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="63"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="18" spans="3:3" ht="23.25" customHeight="1"/>
     <row r="30" spans="3:3">
-      <c r="C30" s="47"/>
+      <c r="C30" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -2669,6 +2651,14 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2679,7 +2669,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A3" sqref="A3:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2693,13 +2683,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" thickBot="1">
-      <c r="C1" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="42"/>
+      <c r="C1" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="23.65" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -2724,11 +2714,11 @@
         <v>2</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="57" t="s">
-        <v>58</v>
+      <c r="I2" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="26.65" customHeight="1">
@@ -2736,17 +2726,17 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="10"/>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
@@ -2754,17 +2744,17 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="13"/>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
@@ -2772,17 +2762,17 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="16"/>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
@@ -2790,10 +2780,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -2808,17 +2798,17 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="62"/>
+      <c r="H7" s="59"/>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.65" thickBot="1">
@@ -2826,82 +2816,82 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="63"/>
+      <c r="H8" s="60"/>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="H9" s="62"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="1:10" ht="14.65" thickBot="1">
-      <c r="H10" s="63"/>
+      <c r="H10" s="60"/>
       <c r="J10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="60"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A12" s="61"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="J13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="J15" s="57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="J16" s="58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" s="58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10">
+      <c r="J18" s="58" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="J15" s="58" t="s">
+    <row r="19" spans="10:10">
+      <c r="J19" s="58" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="J16" s="59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10">
-      <c r="J17" s="59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10">
-      <c r="J18" s="59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="10:10">
-      <c r="J19" s="59" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2939,10 +2929,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
-      <c r="F1" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="42"/>
+      <c r="F1" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="23.65" thickBot="1">
       <c r="A2" s="2" t="s">
@@ -3024,67 +3014,75 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="60"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="60"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A10:A11"/>
@@ -3101,14 +3099,6 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3132,12 +3122,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1" thickBot="1">
-      <c r="F1" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="42"/>
+      <c r="F1" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="41"/>
       <c r="H1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="23.65" thickBot="1">
@@ -3220,67 +3210,75 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="60"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="60"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A10:A11"/>
@@ -3297,14 +3295,6 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3408,67 +3398,75 @@
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="60"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="60"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" spans="1:10" ht="14.65" thickBot="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A10:A11"/>
@@ -3485,14 +3483,6 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
